--- a/arquivos/lixeira_inteligente_tabela_normalizada.xlsx
+++ b/arquivos/lixeira_inteligente_tabela_normalizada.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius\Documents\GitHub\trab01\arquivos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973DC22-48A8-46E2-8041-453C4B6E93E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="LIXEIRA" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="DESCARTE" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="COLETA" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="COLETOR" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="SITUACAO_OPERACIONAL" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="STATUS" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="CIDADAO" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="REGIAO" sheetId="8" r:id="rId10"/>
+    <sheet name="LIXEIRA" sheetId="1" r:id="rId1"/>
+    <sheet name="DESCARTE" sheetId="2" r:id="rId2"/>
+    <sheet name="COLETA" sheetId="3" r:id="rId3"/>
+    <sheet name="COLETOR" sheetId="4" r:id="rId4"/>
+    <sheet name="SITUACAO_OPERACIONAL" sheetId="5" r:id="rId5"/>
+    <sheet name="STATUS" sheetId="6" r:id="rId6"/>
+    <sheet name="CIDADAO" sheetId="7" r:id="rId7"/>
+    <sheet name="REGIAO" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Unir essa tabela a tabela da lixeira.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Unir essa tabela a tabela da lixeira.
 	-Jackson Willian</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -34,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>COD_LIXEIRA</t>
   </si>
@@ -217,27 +233,58 @@
   </si>
   <si>
     <t>Manguinhos</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>VEGALIX</t>
+  </si>
+  <si>
+    <t>EZ PACK</t>
+  </si>
+  <si>
+    <t>SITA 6000</t>
+  </si>
+  <si>
+    <t>COLECOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -245,7 +292,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,165 +308,430 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="13.57"/>
-    <col customWidth="1" min="3" max="3" width="15.86"/>
-    <col customWidth="1" min="4" max="4" width="15.14"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="7" width="16.71"/>
-    <col customWidth="1" min="8" max="8" width="19.14"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,9 +770,9 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>10</v>
@@ -471,8 +783,8 @@
       <c r="D2" s="11">
         <v>-40.2555063</v>
       </c>
-      <c r="E2" s="12">
-        <v>160.0</v>
+      <c r="E2" s="18">
+        <v>160</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
@@ -480,38 +792,38 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="16"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-    </row>
-    <row r="3">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11">
-        <v>-20.1982403</v>
+        <v>-20.198240299999998</v>
       </c>
       <c r="D3" s="11">
-        <v>-40.2530861</v>
-      </c>
-      <c r="E3" s="12">
-        <v>200.0</v>
+        <v>-40.253086099999997</v>
+      </c>
+      <c r="E3" s="18">
+        <v>200</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
@@ -519,38 +831,38 @@
       <c r="K3" s="13"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4">
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="11">
-        <v>-20.1986875</v>
+        <v>-20.198687499999998</v>
       </c>
       <c r="D4" s="11">
-        <v>-40.2580835</v>
-      </c>
-      <c r="E4" s="12">
-        <v>235.0</v>
+        <v>-40.258083499999998</v>
+      </c>
+      <c r="E4" s="18">
+        <v>235</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
@@ -558,26 +870,26 @@
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-    </row>
-    <row r="5">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -586,10 +898,10 @@
         <v>-20.1959193</v>
       </c>
       <c r="D5" s="11">
-        <v>-40.2587904</v>
-      </c>
-      <c r="E5" s="12">
-        <v>241.0</v>
+        <v>-40.258790400000002</v>
+      </c>
+      <c r="E5" s="18">
+        <v>241</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
@@ -597,77 +909,77 @@
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-    </row>
-    <row r="6">
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="11">
-        <v>-20.1925205</v>
+        <v>-20.192520500000001</v>
       </c>
       <c r="D6" s="11">
         <v>-40.2568421</v>
       </c>
-      <c r="E6" s="12">
-        <v>100.0</v>
+      <c r="E6" s="18">
+        <v>100</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-    </row>
-    <row r="7">
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="11">
-        <v>-20.1932706</v>
+        <v>-20.193270600000002</v>
       </c>
       <c r="D7" s="11">
-        <v>-40.2529013</v>
-      </c>
-      <c r="E7" s="12">
-        <v>50.0</v>
+        <v>-40.252901299999998</v>
+      </c>
+      <c r="E7" s="18">
+        <v>50</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
@@ -675,38 +987,38 @@
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
       <c r="Z7" s="12"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-    </row>
-    <row r="8">
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="11">
-        <v>-20.1950812</v>
+        <v>-20.195081200000001</v>
       </c>
       <c r="D8" s="11">
-        <v>-40.2515352</v>
-      </c>
-      <c r="E8" s="12">
-        <v>35.0</v>
+        <v>-40.251535199999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>35</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
@@ -714,38 +1026,38 @@
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9">
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="11">
-        <v>-20.1969409</v>
+        <v>-20.196940900000001</v>
       </c>
       <c r="D9" s="11">
         <v>-40.2516228</v>
       </c>
-      <c r="E9" s="12">
-        <v>60.0</v>
+      <c r="E9" s="18">
+        <v>60</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
@@ -753,43 +1065,44 @@
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,162 +1119,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>6532.0</v>
+        <v>6532</v>
       </c>
       <c r="C2" s="6">
         <v>48.484848484848484</v>
       </c>
       <c r="D2" s="7">
-        <v>43543.0</v>
+        <v>43543</v>
       </c>
       <c r="E2" s="8">
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>6598.0</v>
+        <v>6598</v>
       </c>
       <c r="C3" s="6">
-        <v>78.78787878787878</v>
+        <v>78.787878787878782</v>
       </c>
       <c r="D3" s="7">
-        <v>43544.0</v>
+        <v>43544</v>
       </c>
       <c r="E3" s="8">
-        <v>0.4736111111111111</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.47361111111111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>5652.0</v>
+        <v>5652</v>
       </c>
       <c r="C4" s="6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>43545.0</v>
+        <v>43545</v>
       </c>
       <c r="E4" s="8">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="C5" s="6">
         <v>18.181818181818183</v>
       </c>
       <c r="D5" s="7">
-        <v>43546.0</v>
+        <v>43546</v>
       </c>
       <c r="E5" s="8">
-        <v>0.5423611111111111</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.54236111111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>2323.0</v>
+        <v>2323</v>
       </c>
       <c r="C6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>43547.0</v>
+        <v>43547</v>
       </c>
       <c r="E6" s="8">
-        <v>0.6395833333333333</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6">
         <v>27.27272727272727</v>
       </c>
       <c r="D7" s="7">
-        <v>43548.0</v>
+        <v>43548</v>
       </c>
       <c r="E7" s="8">
         <v>0.6743055555555556</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="C8" s="6">
         <v>10.303030303030303</v>
       </c>
       <c r="D8" s="7">
-        <v>43549.0</v>
+        <v>43549</v>
       </c>
       <c r="E8" s="8">
-        <v>0.7159722222222222</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.71597222222222223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>2356.0</v>
+        <v>2356</v>
       </c>
       <c r="C9" s="6">
         <v>18.787878787878785</v>
       </c>
       <c r="D9" s="7">
-        <v>43550.0</v>
+        <v>43550</v>
       </c>
       <c r="E9" s="8">
-        <v>0.7576388888888889</v>
+        <v>0.75763888888888886</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.57"/>
-    <col customWidth="1" min="3" max="3" width="21.29"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,163 +1292,166 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
         <v>48.484848484848484</v>
       </c>
       <c r="D2" s="7">
-        <v>43543.0</v>
+        <v>43543</v>
       </c>
       <c r="E2" s="8">
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>78.78787878787878</v>
+        <v>78.787878787878782</v>
       </c>
       <c r="D3" s="7">
-        <v>43544.0</v>
+        <v>43544</v>
       </c>
       <c r="E3" s="8">
-        <v>0.4736111111111111</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.47361111111111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>43545.0</v>
+        <v>43545</v>
       </c>
       <c r="E4" s="8">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>18.181818181818183</v>
       </c>
       <c r="D5" s="7">
-        <v>43546.0</v>
+        <v>43546</v>
       </c>
       <c r="E5" s="8">
-        <v>0.5423611111111111</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.54236111111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>43547.0</v>
+        <v>43547</v>
       </c>
       <c r="E6" s="8">
-        <v>0.6395833333333333</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
         <v>27.27272727272727</v>
       </c>
       <c r="D7" s="7">
-        <v>43548.0</v>
+        <v>43548</v>
       </c>
       <c r="E7" s="8">
         <v>0.6743055555555556</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6">
         <v>10.303030303030303</v>
       </c>
       <c r="D8" s="7">
-        <v>43549.0</v>
+        <v>43549</v>
       </c>
       <c r="E8" s="8">
-        <v>0.7159722222222222</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.71597222222222223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
         <v>18.787878787878785</v>
       </c>
       <c r="D9" s="7">
-        <v>43550.0</v>
+        <v>43550</v>
       </c>
       <c r="E9" s="8">
-        <v>0.7576388888888889</v>
+        <v>0.75763888888888886</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="3" width="21.29"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,220 +1464,278 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20">
-        <v>-2.01961361E8</v>
-      </c>
-      <c r="D2" s="20">
-        <v>-4.02555063E8</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="24">
+        <v>-20.1961361</v>
+      </c>
+      <c r="D2" s="24">
+        <v>-40.2555063</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="18">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20">
-        <v>-2.01982403E8</v>
-      </c>
-      <c r="D3" s="20">
-        <v>-4.02530861E8</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="24">
+        <v>-20.198240299999998</v>
+      </c>
+      <c r="D3" s="24">
+        <v>-40.253086099999997</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20">
-        <v>-2.01986875E8</v>
-      </c>
-      <c r="D4" s="20">
-        <v>-4.02580835E8</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="24">
+        <v>-20.198687499999998</v>
+      </c>
+      <c r="D4" s="24">
+        <v>-40.258083499999998</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2013</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20">
-        <v>-2.01959193E8</v>
-      </c>
-      <c r="D5" s="20">
-        <v>-4.02587904E8</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="24">
+        <v>-20.1959193</v>
+      </c>
+      <c r="D5" s="24">
+        <v>-40.258790400000002</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20">
-        <v>-2.01925205E8</v>
-      </c>
-      <c r="D6" s="20">
-        <v>-4.02568421E8</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="24">
+        <v>-20.192520500000001</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-40.2568421</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2013</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20">
-        <v>-2.01932706E8</v>
-      </c>
-      <c r="D7" s="20">
-        <v>-4.02529013E8</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="24">
+        <v>-20.193270600000002</v>
+      </c>
+      <c r="D7" s="24">
+        <v>-40.252901299999998</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2016</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20">
-        <v>-2.01950812E8</v>
-      </c>
-      <c r="D8" s="20">
-        <v>-4.02515352E8</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="24">
+        <v>-20.195081200000001</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-40.251535199999999</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2019</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20">
-        <v>-2.01969409E8</v>
-      </c>
-      <c r="D9" s="20">
-        <v>-4.02516228E8</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="24">
+        <v>-20.196940900000001</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-40.2516228</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="28"/>
+    </row>
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="29"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="12.71"/>
-    <col customWidth="1" min="5" max="5" width="16.29"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,572 +1751,574 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>43543.0</v>
+        <v>43543</v>
       </c>
       <c r="D2" s="8">
-        <v>0.3958333333333333</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>43544.0</v>
+        <v>43544</v>
       </c>
       <c r="D3" s="8">
-        <v>0.3993055555555556</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="E3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
-        <v>43545.0</v>
+        <v>43545</v>
       </c>
       <c r="D4" s="8">
-        <v>0.4041666666666667</v>
+        <v>0.40416666666666667</v>
       </c>
       <c r="E4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>43546.0</v>
+        <v>43546</v>
       </c>
       <c r="D5" s="8">
         <v>0.43333333333333335</v>
       </c>
       <c r="E5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2.0</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>43547.0</v>
+        <v>43547</v>
       </c>
       <c r="D6" s="8">
         <v>0.4375</v>
       </c>
       <c r="E6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1.0</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>43548.0</v>
+        <v>43548</v>
       </c>
       <c r="D7" s="8">
-        <v>0.5069444444444444</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="22">
-        <v>2.0</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>43549.0</v>
+        <v>43549</v>
       </c>
       <c r="D8" s="8">
-        <v>0.5138888888888888</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="E8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="22">
-        <v>3.0</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>43550.0</v>
+        <v>43550</v>
       </c>
       <c r="D9" s="8">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>43544.0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.5416666666666666</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43544</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E10" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="3" width="35.14"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="18"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="18"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="18"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
+    <col min="1" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,9 +2338,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>6532.0</v>
+        <v>6532</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>37</v>
@@ -1972,18 +2349,18 @@
         <v>38</v>
       </c>
       <c r="D2" s="5">
-        <v>12312.0</v>
+        <v>12312</v>
       </c>
       <c r="E2" s="11">
-        <v>-20.05077113</v>
+        <v>-20.050771130000001</v>
       </c>
       <c r="F2" s="11">
-        <v>-40.22094727</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-40.220947270000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>6598.0</v>
+        <v>6598</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>39</v>
@@ -1992,18 +2369,18 @@
         <v>40</v>
       </c>
       <c r="D3" s="5">
-        <v>12342.0</v>
+        <v>12342</v>
       </c>
       <c r="E3" s="11">
-        <v>-20.08688851</v>
+        <v>-20.086888510000001</v>
       </c>
       <c r="F3" s="11">
-        <v>-40.27038574</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-40.270385740000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>5652.0</v>
+        <v>5652</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>41</v>
@@ -2012,18 +2389,18 @@
         <v>42</v>
       </c>
       <c r="D4" s="5">
-        <v>12345.0</v>
+        <v>12345</v>
       </c>
       <c r="E4" s="11">
-        <v>-20.20034601</v>
+        <v>-20.200346010000001</v>
       </c>
       <c r="F4" s="11">
         <v>-40.24841309</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>43</v>
@@ -2032,18 +2409,18 @@
         <v>44</v>
       </c>
       <c r="D5" s="5">
-        <v>12344.0</v>
+        <v>12344</v>
       </c>
       <c r="E5" s="11">
         <v>-20.26219712</v>
       </c>
       <c r="F5" s="11">
-        <v>-40.34179688</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-40.341796879999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>2323.0</v>
+        <v>2323</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>45</v>
@@ -2052,18 +2429,18 @@
         <v>46</v>
       </c>
       <c r="D6" s="5">
-        <v>12312.0</v>
+        <v>12312</v>
       </c>
       <c r="E6" s="11">
-        <v>-20.39097441</v>
+        <v>-20.390974409999998</v>
       </c>
       <c r="F6" s="11">
-        <v>-40.29785156</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-40.297851559999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2072,18 +2449,18 @@
         <v>48</v>
       </c>
       <c r="D7" s="5">
-        <v>12341.0</v>
+        <v>12341</v>
       </c>
       <c r="E7" s="11">
-        <v>-20.20550121</v>
+        <v>-20.205501210000001</v>
       </c>
       <c r="F7" s="11">
-        <v>-40.20446777</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-40.204467770000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>49</v>
@@ -2092,18 +2469,18 @@
         <v>50</v>
       </c>
       <c r="D8" s="5">
-        <v>32134.0</v>
+        <v>32134</v>
       </c>
       <c r="E8" s="11">
-        <v>-20.17456745</v>
+        <v>-20.174567450000001</v>
       </c>
       <c r="F8" s="11">
-        <v>-40.33630371</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-40.336303710000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>2356.0</v>
+        <v>2356</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>51</v>
@@ -2112,34 +2489,35 @@
         <v>52</v>
       </c>
       <c r="D9" s="5">
-        <v>43242.0</v>
+        <v>43242</v>
       </c>
       <c r="E9" s="11">
-        <v>-20.29504551</v>
+        <v>-20.295045510000001</v>
       </c>
       <c r="F9" s="11">
-        <v>-40.30540466</v>
+        <v>-40.305404660000001</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.86"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2147,71 +2525,71 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>